--- a/Output/Посудомоечные машины ВСТР.xlsx
+++ b/Output/Посудомоечные машины ВСТР.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>Артикул</t>
   </si>
@@ -184,9 +184,6 @@
     <t>лоток для столовых приборов, держатель для бокалов</t>
   </si>
   <si>
-    <t>DWC5936FS</t>
-  </si>
-  <si>
     <t>DVH1044J</t>
   </si>
   <si>
@@ -259,6 +256,12 @@
     <t>DF261164</t>
   </si>
   <si>
+    <t>полноразмерные</t>
+  </si>
+  <si>
+    <t>полновстраиваемые</t>
+  </si>
+  <si>
     <t>DF480161</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
     <t>DI260111</t>
   </si>
   <si>
+    <t>открытая панель управления</t>
+  </si>
+  <si>
     <t>DI261111</t>
   </si>
   <si>
@@ -292,9 +298,6 @@
     <t>Miele</t>
   </si>
   <si>
-    <t>открытая панель управления</t>
-  </si>
-  <si>
     <t>встраиваемая частично</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
   </si>
   <si>
     <t>S58E40X1RU</t>
+  </si>
+  <si>
+    <t>узкие</t>
   </si>
   <si>
     <t>S58E47X2RU</t>
@@ -715,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
@@ -939,46 +945,92 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
       <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s"/>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="s"/>
-      <c r="AF3" t="s"/>
-      <c r="AG3" t="s"/>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" t="n">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -987,7 +1039,7 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
         <v>39</v>
@@ -997,16 +1049,16 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
@@ -1015,13 +1067,13 @@
         <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
@@ -1030,13 +1082,13 @@
         <v>48</v>
       </c>
       <c r="V4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" t="s">
         <v>64</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>65</v>
-      </c>
-      <c r="X4" t="s">
-        <v>66</v>
       </c>
       <c r="Y4" t="s">
         <v>48</v>
@@ -1057,21 +1109,21 @@
         <v>48</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1093,13 +1145,13 @@
         <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
@@ -1126,10 +1178,10 @@
         <v>44</v>
       </c>
       <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
         <v>65</v>
-      </c>
-      <c r="X5" t="s">
-        <v>66</v>
       </c>
       <c r="Y5" t="s">
         <v>48</v>
@@ -1150,21 +1202,24 @@
         <v>48</v>
       </c>
       <c r="AE5" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -1173,7 +1228,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -1186,13 +1241,13 @@
         <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
@@ -1201,10 +1256,10 @@
         <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S6" t="n">
         <v>42</v>
@@ -1213,19 +1268,19 @@
         <v>47</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="s">
         <v>52</v>
@@ -1240,27 +1295,27 @@
         <v>53</v>
       </c>
       <c r="AD6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AE6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1269,94 +1324,49 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s"/>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10</v>
-      </c>
-      <c r="S7" t="n">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W7" t="s">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>79</v>
-      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s"/>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+      <c r="Z7" t="s"/>
+      <c r="AA7" t="s"/>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="s"/>
+      <c r="AE7" t="s"/>
+      <c r="AF7" t="s"/>
+      <c r="AG7" t="s"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1364,46 +1374,95 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1425,7 +1484,7 @@
         <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
         <v>43</v>
@@ -1440,7 +1499,7 @@
         <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R9" t="n">
         <v>12</v>
@@ -1455,13 +1514,13 @@
         <v>51</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
         <v>76</v>
-      </c>
-      <c r="X9" t="s">
-        <v>77</v>
       </c>
       <c r="Y9" t="s">
         <v>51</v>
@@ -1482,24 +1541,24 @@
         <v>51</v>
       </c>
       <c r="AE9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -1521,7 +1580,7 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s">
         <v>43</v>
@@ -1536,7 +1595,7 @@
         <v>45</v>
       </c>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R10" t="n">
         <v>12</v>
@@ -1551,13 +1610,13 @@
         <v>51</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
         <v>76</v>
-      </c>
-      <c r="X10" t="s">
-        <v>77</v>
       </c>
       <c r="Y10" t="s">
         <v>51</v>
@@ -1578,24 +1637,24 @@
         <v>51</v>
       </c>
       <c r="AE10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -1617,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
@@ -1632,7 +1691,7 @@
         <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
@@ -1647,13 +1706,13 @@
         <v>51</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
         <v>76</v>
-      </c>
-      <c r="X11" t="s">
-        <v>77</v>
       </c>
       <c r="Y11" t="s">
         <v>51</v>
@@ -1674,24 +1733,24 @@
         <v>51</v>
       </c>
       <c r="AE11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -1700,94 +1759,49 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s"/>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>63</v>
-      </c>
-      <c r="R12" t="n">
-        <v>12</v>
-      </c>
-      <c r="S12" t="n">
-        <v>42</v>
-      </c>
-      <c r="T12" t="s">
-        <v>47</v>
-      </c>
-      <c r="U12" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" t="s">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>79</v>
-      </c>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s"/>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+      <c r="Z12" t="s"/>
+      <c r="AA12" t="s"/>
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="s"/>
+      <c r="AD12" t="s"/>
+      <c r="AE12" t="s"/>
+      <c r="AF12" t="s"/>
+      <c r="AG12" t="s"/>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1795,8 +1809,12 @@
       <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
       <c r="K13" t="s"/>
@@ -1825,16 +1843,16 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -1842,46 +1860,95 @@
       <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
       <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
+      <c r="J14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>46</v>
+      </c>
+      <c r="T14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" t="s">
+        <v>96</v>
+      </c>
+      <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -1893,20 +1960,20 @@
         <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s"/>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N15" t="n">
         <v>10</v>
@@ -1924,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s">
         <v>47</v>
@@ -1933,13 +2000,10 @@
         <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>95</v>
-      </c>
-      <c r="W15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y15" t="s">
         <v>51</v>
@@ -1960,24 +2024,21 @@
         <v>48</v>
       </c>
       <c r="AE15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -1986,88 +2047,49 @@
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s"/>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" t="n">
-        <v>14</v>
-      </c>
-      <c r="S16" t="n">
-        <v>44</v>
-      </c>
-      <c r="T16" t="s">
-        <v>47</v>
-      </c>
-      <c r="U16" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>83</v>
-      </c>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s"/>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+      <c r="Z16" t="s"/>
+      <c r="AA16" t="s"/>
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
+      <c r="AD16" t="s"/>
+      <c r="AE16" t="s"/>
+      <c r="AF16" t="s"/>
+      <c r="AG16" t="s"/>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -2075,8 +2097,12 @@
       <c r="F17" t="s">
         <v>37</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
       <c r="I17" t="s"/>
       <c r="J17" t="s"/>
       <c r="K17" t="s"/>
@@ -2105,16 +2131,16 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -2122,8 +2148,12 @@
       <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s"/>
       <c r="K18" t="s"/>
@@ -2152,16 +2182,16 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -2169,8 +2199,12 @@
       <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
       <c r="I19" t="s"/>
       <c r="J19" t="s"/>
       <c r="K19" t="s"/>
@@ -2199,16 +2233,16 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -2216,8 +2250,12 @@
       <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s"/>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
       <c r="I20" t="s"/>
       <c r="J20" t="s"/>
       <c r="K20" t="s"/>
@@ -2246,16 +2284,16 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -2263,8 +2301,12 @@
       <c r="F21" t="s">
         <v>37</v>
       </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s"/>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
       <c r="I21" t="s"/>
       <c r="J21" t="s"/>
       <c r="K21" t="s"/>
@@ -2293,16 +2335,16 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -2310,8 +2352,12 @@
       <c r="F22" t="s">
         <v>37</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s"/>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
       <c r="I22" t="s"/>
       <c r="J22" t="s"/>
       <c r="K22" t="s"/>
@@ -2340,16 +2386,16 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -2357,8 +2403,12 @@
       <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
       <c r="K23" t="s"/>
@@ -2387,16 +2437,16 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -2404,8 +2454,12 @@
       <c r="F24" t="s">
         <v>37</v>
       </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s"/>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
       <c r="K24" t="s"/>
@@ -2434,16 +2488,16 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -2451,8 +2505,12 @@
       <c r="F25" t="s">
         <v>37</v>
       </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s"/>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
       <c r="I25" t="s"/>
       <c r="J25" t="s"/>
       <c r="K25" t="s"/>
@@ -2481,16 +2539,16 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -2498,8 +2556,12 @@
       <c r="F26" t="s">
         <v>37</v>
       </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s"/>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
       <c r="I26" t="s"/>
       <c r="J26" t="s"/>
       <c r="K26" t="s"/>
@@ -2528,16 +2590,16 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -2545,46 +2607,92 @@
       <c r="F27" t="s">
         <v>37</v>
       </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s"/>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
       <c r="I27" t="s"/>
-      <c r="J27" t="s"/>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
-      <c r="Z27" t="s"/>
-      <c r="AA27" t="s"/>
-      <c r="AB27" t="s"/>
-      <c r="AC27" t="s"/>
-      <c r="AD27" t="s"/>
-      <c r="AE27" t="s"/>
-      <c r="AF27" t="s"/>
-      <c r="AG27" t="s"/>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" t="n">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" t="n">
+        <v>13</v>
+      </c>
+      <c r="S27" t="n">
+        <v>47</v>
+      </c>
+      <c r="T27" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" t="s">
+        <v>96</v>
+      </c>
+      <c r="W27" t="s">
+        <v>115</v>
+      </c>
+      <c r="X27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -2593,91 +2701,49 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s"/>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" t="s">
-        <v>112</v>
-      </c>
-      <c r="N28" t="n">
-        <v>12</v>
-      </c>
-      <c r="O28" t="s">
-        <v>45</v>
-      </c>
-      <c r="P28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" t="n">
-        <v>13</v>
-      </c>
-      <c r="S28" t="n">
-        <v>47</v>
-      </c>
-      <c r="T28" t="s">
-        <v>47</v>
-      </c>
-      <c r="U28" t="s">
-        <v>48</v>
-      </c>
-      <c r="V28" t="s">
-        <v>95</v>
-      </c>
-      <c r="W28" t="s">
-        <v>113</v>
-      </c>
-      <c r="X28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>78</v>
-      </c>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s"/>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+      <c r="Z28" t="s"/>
+      <c r="AA28" t="s"/>
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="s"/>
+      <c r="AD28" t="s"/>
+      <c r="AE28" t="s"/>
+      <c r="AF28" t="s"/>
+      <c r="AG28" t="s"/>
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -2685,8 +2751,12 @@
       <c r="F29" t="s">
         <v>37</v>
       </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s"/>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
       <c r="I29" t="s"/>
       <c r="J29" t="s"/>
       <c r="K29" t="s"/>
@@ -2715,16 +2785,16 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -2732,8 +2802,12 @@
       <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s"/>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
       <c r="I30" t="s"/>
       <c r="J30" t="s"/>
       <c r="K30" t="s"/>
@@ -2762,16 +2836,16 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -2779,131 +2853,84 @@
       <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s"/>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
       <c r="I31" t="s"/>
-      <c r="J31" t="s"/>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
-      <c r="M31" t="s"/>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
-      <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
-      <c r="V31" t="s"/>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
-      <c r="Z31" t="s"/>
-      <c r="AA31" t="s"/>
-      <c r="AB31" t="s"/>
-      <c r="AC31" t="s"/>
-      <c r="AD31" t="s"/>
-      <c r="AE31" t="s"/>
-      <c r="AF31" t="s"/>
-      <c r="AG31" t="s"/>
-    </row>
-    <row r="32" spans="1:33">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" t="s"/>
-      <c r="J32" t="s">
+      <c r="J31" t="s">
         <v>40</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K31" t="s">
         <v>41</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L31" t="s">
         <v>42</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M31" t="s">
         <v>43</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N31" t="n">
         <v>8.5</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O31" t="s">
         <v>45</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P31" t="s">
         <v>45</v>
       </c>
-      <c r="Q32" t="s">
-        <v>63</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="Q31" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" t="n">
         <v>13</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S31" t="n">
         <v>44</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T31" t="s">
         <v>47</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U31" t="s">
         <v>48</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V31" t="s">
         <v>44</v>
       </c>
-      <c r="W32" t="s">
-        <v>120</v>
-      </c>
-      <c r="X32" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="W31" t="s">
+        <v>122</v>
+      </c>
+      <c r="X31" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z31" t="s">
         <v>52</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AA31" t="s">
         <v>48</v>
       </c>
-      <c r="AB32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC32" t="s">
+      <c r="AB31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC31" t="s">
         <v>53</v>
       </c>
-      <c r="AD32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AD31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF31" t="s">
         <v>78</v>
       </c>
-      <c r="AF32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>121</v>
+      <c r="AG31" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
